--- a/T-Test Results.xlsx
+++ b/T-Test Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="500" windowWidth="15880" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="4080" yWindow="500" windowWidth="24720" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Section 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="73">
   <si>
     <t>Attribute</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Almost (0.09)</t>
   </si>
   <si>
-    <t xml:space="preserve"> n = (Population Size)</t>
-  </si>
-  <si>
     <t>Section 1 Question 11 #1 (I can send SMS messages)</t>
   </si>
   <si>
@@ -221,10 +218,34 @@
     <t>Group 2 (Yes)</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Equal Variance (&lt;1)?</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>n=(Population Size Second Group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n = (Population Size First Group)</t>
+  </si>
+  <si>
+    <t>136 (0)</t>
+  </si>
+  <si>
+    <t>1211 (1)</t>
+  </si>
+  <si>
+    <t>170 (0)</t>
+  </si>
+  <si>
+    <t>1177 (1)</t>
+  </si>
+  <si>
+    <t>200 (0)</t>
+  </si>
+  <si>
+    <t>1147 (1)</t>
   </si>
 </sst>
 </file>
@@ -281,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,6 +329,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -587,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,10 +628,11 @@
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="48.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" customWidth="1"/>
+    <col min="10" max="10" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -626,16 +652,19 @@
         <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -657,8 +686,14 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -683,18 +718,21 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>-3.9316661440699199</v>
       </c>
       <c r="E4" s="9">
@@ -703,14 +741,20 @@
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4">
+        <v>319</v>
+      </c>
+      <c r="J4" s="4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -735,18 +779,21 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>-2.65846120985081</v>
       </c>
       <c r="E6" s="9">
@@ -755,24 +802,30 @@
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4">
+        <v>408</v>
+      </c>
+      <c r="J6" s="4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>2.2882910073255802</v>
       </c>
       <c r="E7" s="4">
@@ -781,24 +834,30 @@
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4">
+        <v>408</v>
+      </c>
+      <c r="J7" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>3.7292800600896201</v>
       </c>
       <c r="E8" s="9">
@@ -807,14 +866,20 @@
       <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4">
+        <v>554</v>
+      </c>
+      <c r="J8" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -840,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -866,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -892,7 +957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -918,7 +983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -944,7 +1009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -970,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -996,7 +1061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1048,7 +1113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1074,7 +1139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1100,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1126,17 +1191,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>-1.9325704898304901</v>
       </c>
       <c r="E21" s="4">
@@ -1145,14 +1210,20 @@
       <c r="F21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="4">
+        <v>570</v>
+      </c>
+      <c r="J21" s="4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1178,7 +1249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1204,7 +1275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -1228,17 +1299,17 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="8">
         <v>1.99413238306326</v>
       </c>
       <c r="E25" s="8">
@@ -1247,12 +1318,18 @@
       <c r="F25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <v>221</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1276,7 +1353,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1299,7 +1376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1322,7 +1399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1345,7 +1422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1391,7 +1468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1414,7 +1491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1437,7 +1514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -1460,7 +1537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -1483,7 +1560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1507,7 +1584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1530,7 +1607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1553,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1561,7 +1638,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D39" s="5">
         <v>-6.7493561654561598E-3</v>
@@ -1576,7 +1653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1599,7 +1676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -1622,7 +1699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -1645,17 +1722,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="4">
         <v>1.7476043858910599</v>
       </c>
       <c r="E43" s="4">
@@ -1664,11 +1741,18 @@
       <c r="F43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="4">
+        <v>171</v>
+      </c>
+      <c r="J43" s="4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -1691,17 +1775,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="4">
         <f>2.25483330564737</f>
         <v>2.2548333056473702</v>
       </c>
@@ -1712,11 +1796,18 @@
       <c r="F45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="4">
+        <v>304</v>
+      </c>
+      <c r="J45" s="4">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -1738,18 +1829,20 @@
       <c r="G46" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="4">
         <v>1.6707559945561401</v>
       </c>
       <c r="E47" s="4">
@@ -1759,19 +1852,26 @@
       <c r="F47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="10"/>
+      <c r="I47" s="4">
+        <v>598</v>
+      </c>
+      <c r="J47" s="4">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D48" s="1">
         <v>-1.3565051707685201</v>
@@ -1785,18 +1885,20 @@
       <c r="G48" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="D49" s="4">
         <v>-2.25887832298059</v>
       </c>
       <c r="E49" s="4">
@@ -1805,19 +1907,26 @@
       <c r="F49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D50" s="5">
         <v>-0.516681072641484</v>
@@ -1831,16 +1940,18 @@
       <c r="G50" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D51" s="5">
         <v>-0.42986026564716401</v>
@@ -1854,18 +1965,20 @@
       <c r="G51" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="D52" s="8">
         <v>-2.7103743356068</v>
       </c>
       <c r="E52" s="8">
@@ -1874,21 +1987,28 @@
       <c r="F52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="G52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="D53" s="8">
         <v>-2.2313521859772001</v>
       </c>
       <c r="E53" s="8">
@@ -1897,19 +2017,26 @@
       <c r="F53" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D54" s="5">
         <v>-1.14927732071724</v>
@@ -1927,15 +2054,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D55" s="5">
         <v>0.34217294535109499</v>

--- a/T-Test Results.xlsx
+++ b/T-Test Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanyakhattar/Desktop/HPV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanyakhattar/Desktop/HPV/HPVResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="500" windowWidth="24720" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="14920" yWindow="500" windowWidth="15320" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Section 1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +271,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -302,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,11 +343,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -614,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,35 +748,35 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="12">
         <v>-3.9316661440699199</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="16">
         <v>9.4903123256971303E-5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="G4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="12">
         <v>319</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="12">
         <v>554</v>
       </c>
     </row>
@@ -783,99 +809,99 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="12">
         <v>-2.65846120985081</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="16">
         <v>8.0281657206980207E-3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="12">
         <v>408</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="12">
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="12">
         <v>2.2882910073255802</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="12">
         <v>2.52030880964778E-2</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="12">
         <v>408</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="12">
         <v>3.7292800600896201</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="16">
         <v>3.9851364915772603E-4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="12">
         <v>554</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="12">
         <v>66</v>
       </c>
     </row>
@@ -1299,33 +1325,33 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="13">
         <v>1.99413238306326</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="13">
         <v>4.7200215475140403E-2</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
+      <c r="G25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12">
         <v>221</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="12">
         <v>1025</v>
       </c>
     </row>
@@ -1744,7 +1770,7 @@
       <c r="G43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="4">
         <v>171</v>
       </c>
@@ -1775,35 +1801,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="12">
         <f>2.25483330564737</f>
         <v>2.2548333056473702</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="12">
         <f>0.0246602071965265</f>
         <v>2.46602071965265E-2</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="4">
+      <c r="G45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="12">
         <v>304</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="12">
         <v>598</v>
       </c>
     </row>
@@ -1833,7 +1859,7 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1855,7 +1881,7 @@
       <c r="G47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="10"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="4">
         <v>598</v>
       </c>
@@ -1889,7 +1915,7 @@
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -1910,7 +1936,7 @@
       <c r="G49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="10"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="4" t="s">
         <v>67</v>
       </c>
@@ -1968,38 +1994,38 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="13">
         <v>-2.7103743356068</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="13">
         <v>7.3304718845403696E-3</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="4" t="s">
+      <c r="G52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2020,7 +2046,7 @@
       <c r="G53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="10"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="4" t="s">
         <v>71</v>
       </c>
